--- a/nmadb/501351.xlsx
+++ b/nmadb/501351.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="9585" yWindow="-15" windowWidth="9630" windowHeight="11010" tabRatio="500"/>
@@ -15,7 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'drug level data'!$A$1:$F$220</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$1:$C$102</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="158">
   <si>
     <t xml:space="preserve">Year </t>
   </si>
@@ -400,9 +400,6 @@
   </si>
   <si>
     <t>pitavastatin 4</t>
-  </si>
-  <si>
-    <t>tx</t>
   </si>
   <si>
     <t>Code (tx dose)</t>
@@ -925,14 +922,27 @@
       <t xml:space="preserve"> discontinuation due to adverse events (dose response NMA - sensitivity analysis)</t>
     </r>
   </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1029,111 +1039,61 @@
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1467,14 +1427,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L220"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.625" style="5" customWidth="1"/>
     <col min="2" max="2" width="19.875" style="5" bestFit="1" customWidth="1"/>
@@ -1499,10 +1459,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>157</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1510,18 +1470,18 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="13" t="s">
-        <v>155</v>
+      <c r="I1" s="12" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>1</v>
       </c>
       <c r="D2" s="5">
@@ -1541,7 +1501,7 @@
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>1</v>
       </c>
       <c r="D3" s="5">
@@ -1557,7 +1517,7 @@
         <v>114</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1580,7 +1540,7 @@
         <v>275</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J4" s="6">
         <v>1</v>
@@ -1602,8 +1562,8 @@
       <c r="F5" s="5">
         <v>275</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>148</v>
+      <c r="I5" s="10" t="s">
+        <v>147</v>
       </c>
       <c r="J5" s="6">
         <v>2</v>
@@ -1628,8 +1588,8 @@
       <c r="F6" s="5">
         <v>339</v>
       </c>
-      <c r="I6" s="11" t="s">
-        <v>149</v>
+      <c r="I6" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="J6" s="6">
         <v>3</v>
@@ -1651,8 +1611,8 @@
       <c r="F7" s="5">
         <v>333</v>
       </c>
-      <c r="I7" s="11" t="s">
-        <v>150</v>
+      <c r="I7" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="J7" s="6">
         <v>4</v>
@@ -1677,8 +1637,8 @@
       <c r="F8" s="5">
         <v>2223</v>
       </c>
-      <c r="I8" s="11" t="s">
-        <v>151</v>
+      <c r="I8" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="J8" s="6">
         <v>5</v>
@@ -1700,8 +1660,8 @@
       <c r="F9" s="5">
         <v>2221</v>
       </c>
-      <c r="I9" s="11" t="s">
-        <v>152</v>
+      <c r="I9" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="J9" s="6">
         <v>6</v>
@@ -1726,8 +1686,8 @@
       <c r="F10" s="5">
         <v>800</v>
       </c>
-      <c r="I10" s="11" t="s">
-        <v>153</v>
+      <c r="I10" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="J10" s="6">
         <v>7</v>
@@ -1750,7 +1710,7 @@
         <v>800</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J11" s="6">
         <v>8</v>
@@ -1792,13 +1752,13 @@
       <c r="F13" s="5">
         <v>337</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
+      <c r="H13" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="5">
@@ -1819,11 +1779,11 @@
       <c r="F14" s="5">
         <v>167</v>
       </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="5" t="s">
@@ -1841,11 +1801,11 @@
       <c r="F15" s="5">
         <v>158</v>
       </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="5">
@@ -1866,11 +1826,11 @@
       <c r="F16" s="5">
         <v>227</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
     </row>
     <row r="17" spans="1:12">
       <c r="B17" s="5" t="s">
@@ -1888,11 +1848,11 @@
       <c r="F17" s="5">
         <v>78</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="5">
@@ -1913,11 +1873,11 @@
       <c r="F18" s="5">
         <v>555</v>
       </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
     </row>
     <row r="19" spans="1:12">
       <c r="B19" s="5" t="s">
@@ -1935,11 +1895,11 @@
       <c r="F19" s="5">
         <v>382</v>
       </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="5">
@@ -1960,11 +1920,11 @@
       <c r="F20" s="5">
         <v>123</v>
       </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
     </row>
     <row r="21" spans="1:12">
       <c r="B21" s="5" t="s">
@@ -1982,11 +1942,11 @@
       <c r="F21" s="5">
         <v>124</v>
       </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="5">
@@ -2172,8 +2132,8 @@
       <c r="F31" s="5">
         <v>445</v>
       </c>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="5">
@@ -2194,10 +2154,10 @@
       <c r="F32" s="5">
         <v>3301</v>
       </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
     </row>
     <row r="33" spans="1:12">
       <c r="B33" s="5" t="s">
@@ -2215,10 +2175,10 @@
       <c r="F33" s="5">
         <v>3304</v>
       </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="5">
@@ -2239,10 +2199,10 @@
       <c r="F34" s="5">
         <v>2285</v>
       </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
     </row>
     <row r="35" spans="1:12">
       <c r="B35" s="5" t="s">
@@ -2260,10 +2220,10 @@
       <c r="F35" s="5">
         <v>2289</v>
       </c>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="5">
@@ -2284,10 +2244,10 @@
       <c r="F36" s="5">
         <v>730</v>
       </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
     </row>
     <row r="37" spans="1:12">
       <c r="B37" s="5" t="s">
@@ -2305,10 +2265,10 @@
       <c r="F37" s="5">
         <v>694</v>
       </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="5">
@@ -2978,7 +2938,7 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>21</v>
@@ -5688,14 +5648,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="6.625" customWidth="1"/>
     <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
@@ -5730,11 +5690,11 @@
         <v>4</v>
       </c>
       <c r="G1" s="4"/>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="13" t="s">
-        <v>156</v>
+      <c r="I1" s="12" t="s">
+        <v>155</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -5789,7 +5749,7 @@
         <v>114</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L3" s="4"/>
     </row>
@@ -5815,7 +5775,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J4" s="6">
         <v>1</v>
@@ -5842,7 +5802,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J5" s="6">
         <v>2</v>
@@ -5871,7 +5831,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J6" s="6">
         <v>3</v>
@@ -5898,7 +5858,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J7" s="6">
         <v>4</v>
@@ -5954,7 +5914,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J9" s="6">
         <v>6</v>
@@ -5983,7 +5943,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J10" s="6">
         <v>7</v>
@@ -6039,7 +5999,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J12" s="6">
         <v>9</v>
@@ -6066,7 +6026,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J13" s="6">
         <v>10</v>
@@ -6095,7 +6055,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J14" s="6">
         <v>11</v>
@@ -6151,7 +6111,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J16" s="6">
         <v>13</v>
@@ -6178,7 +6138,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J17" s="6">
         <v>14</v>
@@ -6207,7 +6167,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J18" s="6">
         <v>15</v>
@@ -6263,7 +6223,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J20" s="6">
         <v>17</v>
@@ -6290,7 +6250,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J21" s="6">
         <v>18</v>
@@ -6319,7 +6279,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J22" s="6">
         <v>19</v>
@@ -6375,7 +6335,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J24" s="6">
         <v>21</v>
@@ -6402,7 +6362,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J25" s="6">
         <v>22</v>
@@ -6431,7 +6391,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J26" s="6">
         <v>23</v>
@@ -12823,14 +12783,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
   </cols>
